--- a/data/trans_dic/P38C-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P38C-Edad-trans_dic.xlsx
@@ -549,7 +549,7 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">

--- a/data/trans_dic/P38C-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P38C-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,36%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>44,31%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>65,47%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,21%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,85%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>50,97%</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>50,86; 61,03</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,11</t>
+          <t>37,03; 54,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>61,21; 70,27</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,94</t>
+          <t>50,32; 65,39</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>57,61; 64,31</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>45,85; 56,88</t>
         </is>
       </c>
     </row>
@@ -681,32 +681,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,4%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,17%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,3%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,03%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,2%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,94%</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>64,13; 72,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>58,2; 70,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>78,92; 85,25</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>65,7; 77,85</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>72,43; 77,52</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>64,34; 72,77</t>
         </is>
       </c>
     </row>
@@ -761,32 +761,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,09%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,04%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,36%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,74%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,22%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,98%</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>77,77; 84,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>72,35; 79,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>82,28; 87,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>80,71; 86,43</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>81,02; 85,22</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>77,55; 82,36</t>
         </is>
       </c>
     </row>
@@ -841,32 +841,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,24%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,87%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>90,32%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>90,15%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>88,79%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,09%</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>83,98; 89,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>59,59; 86,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>87,72; 92,35</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>86,7; 92,01</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>86,92; 90,61</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>74,74; 88,96</t>
         </is>
       </c>
     </row>
@@ -921,32 +921,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,21%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,54%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,09%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,58%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,66%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,56%</t>
         </is>
       </c>
     </row>
@@ -959,32 +959,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>89,34; 94,46</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>89,08; 93,71</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>89,98; 95,15</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>91,75; 95,07</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>90,86; 94,27</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>90,99; 93,86</t>
         </is>
       </c>
     </row>
@@ -1001,32 +1001,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,16%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,48%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,02%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,95%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,65%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,76%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1039,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>95,42; 98,31</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>95,3; 97,68</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>96,57; 98,93</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>95,73; 97,97</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>96,7; 98,41</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>95,85; 97,58</t>
         </is>
       </c>
     </row>
@@ -1081,32 +1081,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,47%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,78%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,44%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,37%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>84,53%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,8%</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1119,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>79,87; 82,8</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>74,67; 80,88</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>86,21; 88,55</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>84,75; 87,96</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>83,63; 85,42</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>80,85; 84,09</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P38C-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P38C-Edad-trans_dic.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -606,7 +606,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>44,31%</t>
+          <t>48,55%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>58,21%</t>
+          <t>61,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -626,7 +626,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>50,97%</t>
+          <t>53,96%</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>37,03; 54,04</t>
+          <t>40,31; 58,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>50,32; 65,39</t>
+          <t>53,16; 68,07</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -664,14 +664,14 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>45,85; 56,88</t>
+          <t>48,51; 59,83</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -686,7 +686,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>64,17%</t>
+          <t>65,46%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>73,03%</t>
+          <t>66,39%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -706,7 +706,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>68,94%</t>
+          <t>65,97%</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>58,2; 70,74</t>
+          <t>59,61; 71,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>65,7; 77,85</t>
+          <t>43,28; 78,25</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -744,14 +744,14 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>64,34; 72,77</t>
+          <t>50,96; 72,65</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>76,04%</t>
+          <t>77,26%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>83,74%</t>
+          <t>84,48%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>79,98%</t>
+          <t>80,89%</t>
         </is>
       </c>
     </row>
@@ -804,7 +804,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>72,35; 79,76</t>
+          <t>73,74; 80,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -814,7 +814,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>80,71; 86,43</t>
+          <t>81,56; 87,07</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -824,14 +824,14 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>77,55; 82,36</t>
+          <t>78,5; 83,22</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -846,7 +846,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>79,87%</t>
+          <t>62,38%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>90,15%</t>
+          <t>90,98%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -866,7 +866,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>85,09%</t>
+          <t>75,12%</t>
         </is>
       </c>
     </row>
@@ -884,7 +884,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>59,59; 86,78</t>
+          <t>26,73; 87,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -894,7 +894,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>86,7; 92,01</t>
+          <t>88,31; 92,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -904,14 +904,14 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>74,74; 88,96</t>
+          <t>47,08; 89,44</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>91,54%</t>
+          <t>91,86%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -936,7 +936,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>93,58%</t>
+          <t>93,73%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -946,7 +946,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>92,56%</t>
+          <t>92,79%</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>89,08; 93,71</t>
+          <t>89,55; 93,94</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -974,7 +974,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>91,75; 95,07</t>
+          <t>91,96; 95,21</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -984,14 +984,14 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>90,99; 93,86</t>
+          <t>91,27; 94,06</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1001,32 +1001,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>97,16%</t>
+          <t>96,98%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>96,48%</t>
+          <t>95,05%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>98,02%</t>
+          <t>97,85%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>96,95%</t>
+          <t>98,05%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>97,65%</t>
+          <t>97,44%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>96,76%</t>
+          <t>96,92%</t>
         </is>
       </c>
     </row>
@@ -1039,39 +1039,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>95,42; 98,31</t>
+          <t>94,88; 98,72</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>95,3; 97,68</t>
+          <t>93,17; 96,65</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>96,57; 98,93</t>
+          <t>96,0; 98,98</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>95,73; 97,97</t>
+          <t>96,62; 99,4</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>96,7; 98,41</t>
+          <t>96,21; 98,45</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>95,85; 97,58</t>
+          <t>95,61; 98,53</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1081,32 +1081,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>81,47%</t>
+          <t>97,4%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>78,78%</t>
+          <t>98,42%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>87,44%</t>
+          <t>98,18%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>86,37%</t>
+          <t>96,58%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>84,53%</t>
+          <t>97,88%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>82,8%</t>
+          <t>97,32%</t>
         </is>
       </c>
     </row>
@@ -1119,44 +1119,124 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>94,74; 98,78</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>96,78; 99,32</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>95,88; 99,37</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>95,08; 97,79</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>96,4; 98,89</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>96,24; 98,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>81,47%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>74,67%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>87,44%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>86,3%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>84,53%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>80,65%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>79,87; 82,8</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>74,67; 80,88</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>54,51; 80,99</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>86,21; 88,55</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>84,75; 87,96</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>80,03; 88,72</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>83,63; 85,42</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>80,85; 84,09</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>72,07; 84,16</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
@@ -1167,6 +1247,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P38C-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P38C-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>50,86; 61,03</t>
+          <t>51,32; 61,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>40,31; 58,68</t>
+          <t>39,57; 57,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>61,21; 70,27</t>
+          <t>60,46; 69,78</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>53,16; 68,07</t>
+          <t>53,52; 67,73</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>57,61; 64,31</t>
+          <t>57,43; 64,61</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>48,51; 59,83</t>
+          <t>47,87; 59,49</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>64,13; 72,63</t>
+          <t>64,64; 72,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>59,61; 71,86</t>
+          <t>59,35; 70,83</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>78,92; 85,25</t>
+          <t>78,8; 85,21</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>43,28; 78,25</t>
+          <t>40,17; 78,21</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>72,43; 77,52</t>
+          <t>72,51; 77,94</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>50,96; 72,65</t>
+          <t>50,01; 72,58</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>77,77; 84,04</t>
+          <t>78,01; 84,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>73,74; 80,91</t>
+          <t>72,9; 80,65</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>82,28; 87,92</t>
+          <t>82,45; 87,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>81,56; 87,07</t>
+          <t>81,43; 86,85</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>81,02; 85,22</t>
+          <t>81,06; 85,22</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>78,5; 83,22</t>
+          <t>78,58; 83,14</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>83,98; 89,79</t>
+          <t>84,38; 89,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>26,73; 87,04</t>
+          <t>27,34; 87,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>87,72; 92,35</t>
+          <t>87,99; 92,49</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>88,31; 92,85</t>
+          <t>87,96; 92,88</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>86,92; 90,61</t>
+          <t>86,89; 90,46</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>47,08; 89,44</t>
+          <t>44,55; 89,24</t>
         </is>
       </c>
     </row>
@@ -959,32 +960,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>89,34; 94,46</t>
+          <t>89,39; 94,66</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>89,55; 93,94</t>
+          <t>89,44; 93,84</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>89,98; 95,15</t>
+          <t>90,48; 95,15</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>91,96; 95,21</t>
+          <t>91,67; 95,13</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>90,86; 94,27</t>
+          <t>90,71; 94,32</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>91,27; 94,06</t>
+          <t>91,35; 93,91</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1040,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>94,88; 98,72</t>
+          <t>94,57; 98,48</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>93,17; 96,65</t>
+          <t>92,99; 96,66</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>96,0; 98,98</t>
+          <t>95,87; 98,96</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>96,62; 99,4</t>
+          <t>96,65; 99,3</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>96,21; 98,45</t>
+          <t>96,1; 98,34</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>95,61; 98,53</t>
+          <t>95,64; 98,51</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1120,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>94,74; 98,78</t>
+          <t>95,08; 98,86</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>96,78; 99,32</t>
+          <t>97,07; 99,33</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>95,88; 99,37</t>
+          <t>95,7; 99,38</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>95,08; 97,79</t>
+          <t>94,86; 97,81</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>96,4; 98,89</t>
+          <t>96,43; 98,94</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>96,24; 98,15</t>
+          <t>96,15; 98,18</t>
         </is>
       </c>
     </row>
@@ -1199,32 +1200,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>79,87; 82,8</t>
+          <t>80,09; 82,85</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>54,51; 80,99</t>
+          <t>57,23; 80,95</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>86,21; 88,55</t>
+          <t>86,35; 88,57</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>80,03; 88,72</t>
+          <t>80,73; 88,75</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>83,63; 85,42</t>
+          <t>83,65; 85,33</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>72,07; 84,16</t>
+          <t>70,67; 84,5</t>
         </is>
       </c>
     </row>
@@ -1252,4 +1253,1071 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que le han medido los niveles de glucosal por prescripción médica</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>476</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>227141</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>194211</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>257160</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>186977</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>484301</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>381188</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>206825; 247716</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>158285; 229255</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>237499; 274110</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>164050; 207579</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>457072; 514226</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>338182; 420300</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>389</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>475</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>351</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>864</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>548</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>402510</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>277244</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>462976</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>339586</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>865486</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>616830</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>380352; 425260</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>251362; 300015</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>443272; 479337</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>205472; 400025</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>834527; 897060</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>467648; 678632</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>511</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>562</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>721</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1073</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>1135</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>535543</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>413198</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>557449</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>458134</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1092992</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>871332</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>515160; 556634</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>389892; 431368</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>538413; 573660</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>441585; 470984</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>1064711; 1119332</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>846380; 895569</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>502</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>580</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>1040</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1044</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>1620</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>556337</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>553821</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>584371</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>648112</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1140708</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>1201933</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>538095; 573218</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>242709; 774418</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>569312; 598417</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>626574; 661608</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1116275; 1162201</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>712801; 1428006</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>392</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>606</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>402</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>946</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>794</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>1552</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>440673</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>515538</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>461401</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>513578</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>902074</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>1029116</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>427208; 452414</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>501960; 526673</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>448459; 471608</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>502262; 521214</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>883168; 918227</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1013214; 1041624</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>543</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>346</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>802</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>661</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>1345</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>324219</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>349956</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>369636</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>596519</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>693855</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>946475</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>316162; 329239</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>342373; 355872</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>362150; 373832</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>587988; 604130</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>684332; 700268</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>933982; 962022</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>293</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>295</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>856</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>588</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>1307</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>249500</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>278288</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>391715</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>410731</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>641214</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>689019</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>243568; 253236</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>274483; 280854</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>381792; 396475</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>403400; 415931</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>631734; 648149</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>680737; 695103</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>2616</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>2870</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>2884</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>4839</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>5500</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>7709</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>2735922</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>2582257</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>3084708</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>3153638</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>5820630</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>5735894</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>2689338; 2782281</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>1979099; 2799393</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>3046246; 3124396</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>2949914; 3243177</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>5759974; 5875968</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>5026322; 6009920</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>